--- a/reports/SalaryPayroll_PayrollSalary.xlsx
+++ b/reports/SalaryPayroll_PayrollSalary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>deptcode</t>
   </si>
@@ -31,34 +31,10 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>Accounting/Mgmt Services</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>D8700</t>
-  </si>
-  <si>
-    <t>Durango Mountain Realty</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>Events</t>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>Basecamp</t>
   </si>
   <si>
     <t>D8030</t>
@@ -73,22 +49,22 @@
     <t>F&amp;B Admin</t>
   </si>
   <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>General Admin</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>HPL Retail</t>
   </si>
   <si>
     <t>D8040</t>
@@ -127,16 +103,10 @@
     <t>Mountain G&amp;A</t>
   </si>
   <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purg Lodge</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Rentals</t>
   </si>
   <si>
     <t>D6700</t>
@@ -151,10 +121,16 @@
     <t>Risk Management</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
   </si>
   <si>
     <t>D1500</t>
@@ -535,14 +511,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -565,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>561.570000</v>
+        <v>219.180000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -576,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>348.210000</v>
+        <v>174.390000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -587,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>150.680000</v>
+        <v>767.120000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -598,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>167.120000</v>
+        <v>1144.410000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -609,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>604.610000</v>
+        <v>200.550000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -620,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>191.040000</v>
+        <v>843.510000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -631,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>1164.390000</v>
+        <v>150.680000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -642,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>1434.190000</v>
+        <v>150.680000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -653,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>550.650000</v>
+        <v>220.110000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -664,7 +640,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>150.680000</v>
+        <v>196.600000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -675,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>356.160000</v>
+        <v>164.380000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -686,7 +662,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>158.220000</v>
+        <v>435.610000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -697,7 +673,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>493.590000</v>
+        <v>860.400000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -708,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2">
-        <v>416.230000</v>
+        <v>147.940000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -719,7 +695,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="2">
-        <v>208.220000</v>
+        <v>202.740000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -730,7 +706,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="2">
-        <v>521.230000</v>
+        <v>202.740000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -741,7 +717,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2">
-        <v>282.190000</v>
+        <v>191.780000</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -752,7 +728,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>417.120000</v>
+        <v>178.080000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -763,7 +739,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="2">
-        <v>183.420000</v>
+        <v>312.340000</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -774,7 +750,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>5739.980000</v>
+        <v>198.630000</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -785,51 +761,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="2">
-        <v>175.340000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2">
-        <v>327.390000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2">
-        <v>150.680000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2">
-        <v>356.160000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2">
-        <v>224.660000</v>
+        <v>203.180000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/SalaryPayroll_PayrollSalary.xlsx
+++ b/reports/SalaryPayroll_PayrollSalary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>deptcode</t>
   </si>
@@ -31,10 +31,34 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>Basecamp</t>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>Accounting/Mgmt Services</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>D8700</t>
+  </si>
+  <si>
+    <t>Durango Mountain Realty</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>Events</t>
   </si>
   <si>
     <t>D8030</t>
@@ -49,22 +73,22 @@
     <t>F&amp;B Admin</t>
   </si>
   <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>Facilities Maintenance</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>General Admin</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>HPL Retail</t>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
   </si>
   <si>
     <t>D8040</t>
@@ -103,10 +127,16 @@
     <t>Mountain G&amp;A</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purg Lodge</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
   </si>
   <si>
     <t>D6700</t>
@@ -121,16 +151,10 @@
     <t>Risk Management</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
   </si>
   <si>
     <t>D1500</t>
@@ -511,14 +535,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>219.180000</v>
+        <v>561.570000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -552,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>174.390000</v>
+        <v>348.210000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -563,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>767.120000</v>
+        <v>150.680000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -574,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>1144.410000</v>
+        <v>167.120000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -585,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>200.550000</v>
+        <v>604.610000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -596,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>843.510000</v>
+        <v>191.040000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -607,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>150.680000</v>
+        <v>1164.390000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -618,7 +642,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>150.680000</v>
+        <v>1434.190000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -629,7 +653,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>220.110000</v>
+        <v>550.650000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -640,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>196.600000</v>
+        <v>150.680000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -651,7 +675,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>164.380000</v>
+        <v>356.160000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -662,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>435.610000</v>
+        <v>158.220000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -673,7 +697,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>860.400000</v>
+        <v>493.590000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -684,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2">
-        <v>147.940000</v>
+        <v>416.230000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -695,7 +719,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="2">
-        <v>202.740000</v>
+        <v>208.220000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -706,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="2">
-        <v>202.740000</v>
+        <v>521.230000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -717,7 +741,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2">
-        <v>191.780000</v>
+        <v>282.190000</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -728,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>178.080000</v>
+        <v>417.120000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -739,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="2">
-        <v>312.340000</v>
+        <v>183.420000</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -750,7 +774,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>198.630000</v>
+        <v>5739.980000</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -761,7 +785,51 @@
         <v>44</v>
       </c>
       <c r="C22" s="2">
-        <v>203.180000</v>
+        <v>175.340000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>327.390000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>150.680000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <v>356.160000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2">
+        <v>224.660000</v>
       </c>
     </row>
   </sheetData>

--- a/reports/SalaryPayroll_PayrollSalary.xlsx
+++ b/reports/SalaryPayroll_PayrollSalary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>deptcode</t>
   </si>
@@ -22,7 +22,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>rate_per_day</t>
+    <t>total</t>
   </si>
   <si>
     <t>D8020</t>
@@ -31,12 +31,6 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>Basecamp</t>
-  </si>
-  <si>
     <t>D8030</t>
   </si>
   <si>
@@ -55,12 +49,6 @@
     <t>Facilities Maintenance</t>
   </si>
   <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>General Admin</t>
-  </si>
-  <si>
     <t>D4032</t>
   </si>
   <si>
@@ -103,12 +91,6 @@
     <t>Mountain G&amp;A</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
     <t>D6700</t>
   </si>
   <si>
@@ -121,6 +103,18 @@
     <t>Risk Management</t>
   </si>
   <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
     <t>D2000</t>
   </si>
   <si>
@@ -143,12 +137,6 @@
   </si>
   <si>
     <t>Trail Grooming</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
   </si>
 </sst>
 </file>
@@ -511,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +507,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -541,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>219.180000</v>
+        <v>582.180000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -552,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>174.390000</v>
+        <v>821.920000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -563,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>767.120000</v>
+        <v>1099.170000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -574,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>1144.410000</v>
+        <v>211.640000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -585,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>200.550000</v>
+        <v>178.080000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -596,7 +584,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>843.510000</v>
+        <v>183.560000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -607,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>150.680000</v>
+        <v>623.970000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -618,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>150.680000</v>
+        <v>225.340000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -629,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>220.110000</v>
+        <v>173.290000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -640,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>196.600000</v>
+        <v>310.960000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -651,7 +639,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>164.380000</v>
+        <v>911.500000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -662,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>435.610000</v>
+        <v>250.000000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -673,7 +661,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>860.400000</v>
+        <v>216.440000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -684,7 +672,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2">
-        <v>147.940000</v>
+        <v>178.080000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -695,7 +683,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="2">
-        <v>202.740000</v>
+        <v>346.570000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -706,7 +694,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="2">
-        <v>202.740000</v>
+        <v>505.480000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -717,7 +705,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2">
-        <v>191.780000</v>
+        <v>175.340000</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -728,7 +716,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>178.080000</v>
+        <v>516.430000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -739,29 +727,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="2">
-        <v>312.340000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2">
-        <v>198.630000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2">
-        <v>203.180000</v>
+        <v>210.960000</v>
       </c>
     </row>
   </sheetData>
